--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>833108.1429850804</v>
+        <v>830547.9588252152</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>362.2105175195725</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>41.24068147581098</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>148.1776514406537</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.86361152308148</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>223.3922079480015</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>118.9397110567442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>78.08347960368694</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>78.86261552750632</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>114.5059581839112</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>359.2470391666253</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>76.89801764146432</v>
       </c>
       <c r="V10" t="n">
-        <v>62.74978945709196</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>264.7861679857031</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>3.171820953556104</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035167</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.5394201782957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009521</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146332</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076761</v>
@@ -1582,10 +1582,10 @@
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754662</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001829</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,10 +1819,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>229.4793819278576</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819348</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833869</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>172.0260335000806</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>45.16086499484827</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826188793</v>
       </c>
       <c r="S25" t="n">
-        <v>101.3930697667058</v>
+        <v>181.026286001643</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2606,13 +2606,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576156</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182138</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826188743</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272914</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>214.0780236353749</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>146.5235739004513</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892407</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>39.96816871822014</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>13.74238375877706</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>61.44013021076753</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552886</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.658421589777</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>65.99480013030511</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1841.137109080772</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>1472.174592140361</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>1113.90889353361</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>728.1206409353661</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>721.1751401861626</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4328,25 +4328,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056584</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056584</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.137109080772</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>790.7764984014354</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
         <v>1541.323645957601</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.6966947956497</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>750.7605118677428</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063345</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1158.783151063345</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>1158.783151063345</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.345159625889</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>754.2550354186935</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>754.2550354186935</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>343.269130629086</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2317.498998647086</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.730343376971</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1591.264585115892</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>1201.12525314008</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4653,16 +4653,16 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.0447030767627</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>454.1085201488559</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1360.945170614473</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1071.82683311831</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.82683311831</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.82683311831</v>
+        <v>745.1791073041734</v>
       </c>
       <c r="X7" t="n">
-        <v>843.8372822202929</v>
+        <v>517.189556406156</v>
       </c>
       <c r="Y7" t="n">
-        <v>623.0447030767627</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>825.108488495616</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>825.108488495616</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>825.108488495616</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>825.108488495616</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>414.1225837060085</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796629</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.313418796629</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.847660535549</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.708328559738</v>
+        <v>1768.949738926588</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800292</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370159</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180658</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495374</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508757</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287796</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2047.363946463958</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4960,7 +4960,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>1139.164126134685</v>
       </c>
       <c r="V10" t="n">
-        <v>958.3822695744182</v>
+        <v>884.4796379287984</v>
       </c>
       <c r="W10" t="n">
-        <v>668.9650995374575</v>
+        <v>595.0624678918377</v>
       </c>
       <c r="X10" t="n">
-        <v>440.9755486394401</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.18296949591</v>
+        <v>367.0729169938204</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2218.777615179248</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1849.815098238836</v>
+        <v>1166.296315748942</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>808.0306171421921</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>804.8267575931454</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5110662246919</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
         <v>704.5155104420323</v>
@@ -5054,37 +5054,37 @@
         <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856287</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882245</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234595</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234595</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750376</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3721.751200750376</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3721.751200750376</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>3368.982545480261</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>2995.516787219181</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2605.37745524337</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246919</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831296</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104397</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.46271775433</v>
+        <v>977.390502384806</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467296</v>
+        <v>1518.698809735873</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.081882663713</v>
+        <v>203.8650582458557</v>
       </c>
       <c r="C13" t="n">
-        <v>835.1456997358064</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234706</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246919</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457709</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888922</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779222</v>
@@ -5212,7 +5212,7 @@
         <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
         <v>2060.002133082522</v>
@@ -5227,22 +5227,22 @@
         <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920202</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.488017920202</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.488017920202</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1378.070847883241</v>
+        <v>834.2956531176428</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.081296985224</v>
+        <v>606.3061022196255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1150.081296985224</v>
+        <v>385.5135230760953</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,25 +5276,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127288</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J15" t="n">
-        <v>97.83671828558994</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="K15" t="n">
-        <v>428.3454608489487</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="L15" t="n">
-        <v>919.0777936927001</v>
+        <v>525.8973588994251</v>
       </c>
       <c r="M15" t="n">
-        <v>1511.096147944828</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.192111344164</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.8816814720474</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>704.9454985441405</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>554.8288591318048</v>
+        <v>175.0061676818304</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494118</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608053</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1793.729446380795</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1793.729446380795</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1504.312276343835</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1276.322725445817</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.530146302287</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232839</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2273.199413378159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.199413378159</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378159</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172272</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135311</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237294</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093764</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5938,7 +5938,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2389.155899672379</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811331</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532262</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408904</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408903</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>484.81129684298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.545841391668</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2124.944376414609</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1835.869149758807</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1581.18466155292</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536399</v>
+        <v>580.8993044876654</v>
       </c>
       <c r="C28" t="n">
-        <v>705.932442825733</v>
+        <v>411.9631215597585</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>261.8464821474229</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>113.9333885650299</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>113.9333885650299</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6412,22 +6412,22 @@
         <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359453</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.7575184984</v>
+        <v>983.3403484614353</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.51709058388</v>
+        <v>762.5477693179051</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,13 +6488,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6555,7 +6555,7 @@
         <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536383</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257314</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133957</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310025</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330923</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2049.058935487111</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1505.299220625426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,10 +6783,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380888</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101819</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>422.790329297846</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,22 +6859,22 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683285</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>564.5188827892232</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>416.6057892068302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7348,13 +7348,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6442739835329</v>
+        <v>580.8993044876692</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835329</v>
+        <v>411.9631215597623</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.724593490894</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,7 +7582,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7594,25 +7594,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2302.863667833011</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2083.262202855953</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1794.18697620015</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1539.502487994263</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1250.085317957303</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.085317957303</v>
+        <v>983.340348461439</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>762.5477693179089</v>
       </c>
     </row>
     <row r="44">
@@ -7646,7 +7646,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>73.66059580999774</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>199.7516311504064</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>305.1601501039158</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.76488231024575</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>60.50016306149558</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4330134067489</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>89.89687363497984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>378.7585491187057</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238013</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114094</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.2925600036416</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767571</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034033</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729138</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537665</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>56.70606962056283</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823048</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>9.000252501563937</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.5487903941889</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823376</v>
       </c>
       <c r="S25" t="n">
-        <v>79.63321623493876</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>145.6085800303814</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.506629716719914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823146</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922719</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>70.88187642683695</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>106.465793928349</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>131.6786642641542</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>87.17534280744482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228711</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>38.36786441186761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>186.1428431935229</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>909603.0722149411</v>
+        <v>909603.0722149409</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>995463.9682353933</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>995463.9682353934</v>
+        <v>995463.9682353932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
         <v>386954.4379713451</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099662</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372534</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.964837253</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.964837253</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357076</v>
+        <v>325187.119035707</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051371</v>
+        <v>166521.3471051373</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557887</v>
+        <v>11167.23623557904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456847</v>
+        <v>84929.59434456841</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848887</v>
+        <v>43782.40655848892</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224693</v>
@@ -26436,25 +26436,25 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719656</v>
       </c>
       <c r="L4" t="n">
+        <v>7507.368461719669</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719672</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719691</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214718</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-909756.4903837597</v>
+        <v>-909756.4903837596</v>
       </c>
       <c r="C6" t="n">
         <v>204995.2931921596</v>
       </c>
       <c r="D6" t="n">
-        <v>204995.2931921596</v>
+        <v>204995.2931921597</v>
       </c>
       <c r="E6" t="n">
-        <v>-31734.65073092327</v>
+        <v>-31944.6149747675</v>
       </c>
       <c r="F6" t="n">
-        <v>147242.5686504964</v>
+        <v>147196.6636549303</v>
       </c>
       <c r="G6" t="n">
-        <v>303954.8303160476</v>
+        <v>303920.0923906118</v>
       </c>
       <c r="H6" t="n">
-        <v>315122.0665516265</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="I6" t="n">
-        <v>315122.0665516265</v>
+        <v>315087.3286261905</v>
       </c>
       <c r="J6" t="n">
-        <v>147516.8887416439</v>
+        <v>147482.1508162082</v>
       </c>
       <c r="K6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261906</v>
       </c>
       <c r="L6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261907</v>
       </c>
       <c r="M6" t="n">
-        <v>230192.4722070579</v>
+        <v>230157.7342816223</v>
       </c>
       <c r="N6" t="n">
-        <v>271339.6599931376</v>
+        <v>271304.9220677018</v>
       </c>
       <c r="O6" t="n">
-        <v>312098.7685744014</v>
+        <v>312064.030648966</v>
       </c>
       <c r="P6" t="n">
-        <v>315122.0665516264</v>
+        <v>315087.3286261905</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086488</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770177</v>
+        <v>278.1053753770171</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221829</v>
+        <v>145.8707812218292</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086101</v>
+        <v>340.8034957086098</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364188</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086101</v>
+        <v>340.8034957086098</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086101</v>
+        <v>340.8034957086098</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364188</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>49.33718525338151</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>328.4904192026581</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31.65432874128362</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>161.7210418290133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>188.1554948249525</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>208.8125474133907</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.665216393525</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>173.2750277963217</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>268.2278834795694</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>52.30066360632867</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>209.3291364797363</v>
       </c>
       <c r="V10" t="n">
-        <v>189.387853866736</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.818923700876795e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.476099325576798e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-4.798841391264195e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.591615728102625e-12</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29326,13 +29326,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>4.456067006173895e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>9.485209937420635e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-3.145927962577844e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9.169214801165515e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29682,7 +29682,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-3.041122909053229e-12</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -29724,7 +29724,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.570807888177247e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485652</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508994</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472606</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216977</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857431</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898392</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294413</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615141</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951044</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188521</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596483</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256419</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845334</v>
+        <v>219.8517740430746</v>
       </c>
       <c r="N12" t="n">
-        <v>565.874131995421</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431813</v>
+        <v>620.3452877431811</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205473</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
         <v>0.1715335284190411</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691795</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263711</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
         <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570616</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929614</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282691</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765139</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>131.9134802621307</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>574.9651909908055</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>558.375963895806</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>305.5427724581384</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>675.4898072958217</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34366,10 +34366,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,7 +34457,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717714</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>371.3409564478479</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432803</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>640.5848321000387</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>602.2300008170298</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>381.1895643063687</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>451.6972626543695</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1125425302811</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276254</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584704</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077545</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062445</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156621</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457677</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>77.71774012105629</v>
       </c>
       <c r="N12" t="n">
-        <v>434.5324199120876</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987369</v>
+        <v>477.7490432987366</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062171</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670185</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882117</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190458</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
         <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998369</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>5.075853595464052</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>436.4108112109312</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>416.2419299737876</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.5609983721169</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>533.3557733738033</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37953,7 +37953,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066241</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38014,10 +38014,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,7 +38105,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.358233988438</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
